--- a/Self-Attention-Mechanism-By-Hand/Solution/Attention_Mechanism_By_Hand_Solution.xlsx
+++ b/Self-Attention-Mechanism-By-Hand/Solution/Attention_Mechanism_By_Hand_Solution.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding Workspace\Machine-Learning-By-Hand\Self-Attention-Mechanism-By-Hand\Solution\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133843FE-F59D-4330-BCDC-D6463CD4B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -157,73 +166,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="23.0"/>
+      <sz val="23"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC55A11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Coming"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC55A11"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -233,7 +240,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -249,7 +256,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -263,108 +276,115 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -554,1670 +574,1770 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="5.0"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="12" width="5.29"/>
-    <col customWidth="1" min="13" max="13" width="2.29"/>
-    <col customWidth="1" min="14" max="14" width="4.71"/>
-    <col customWidth="1" min="15" max="15" width="2.43"/>
-    <col customWidth="1" min="16" max="16" width="4.71"/>
-    <col customWidth="1" min="17" max="21" width="4.29"/>
-    <col customWidth="1" min="22" max="22" width="4.0"/>
-    <col customWidth="1" min="23" max="27" width="11.71"/>
-    <col customWidth="1" min="28" max="29" width="17.29"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.33203125" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="2.44140625" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="21" width="4.33203125" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="29" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="W5" s="2" t="s">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+    </row>
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
+      <c r="W5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="M6" s="3" t="s">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1">
+      <c r="M6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="M7" s="3" t="s">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="D8" s="9" t="s">
+      <c r="W7" s="6">
         <v>10</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="6" t="s">
+      <c r="W8" s="6">
+        <v>10</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="3" t="s">
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="6" t="s">
+      <c r="W9" s="6">
+        <v>10</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="3" t="s">
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="6" t="s">
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="3" t="s">
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="W11" s="6">
+        <v>0</v>
+      </c>
+      <c r="X11" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="3" t="s">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="3" t="s">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="Q13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y13" s="15" t="s">
+      <c r="Y13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="F14" s="14" t="s">
+      <c r="AA13" s="13"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1">
+      <c r="F14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V14" s="14" t="s">
+      <c r="Q14" s="6">
+        <v>2</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="F15" s="16" t="s">
+      <c r="W14" s="6">
+        <v>20</v>
+      </c>
+      <c r="X14" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1">
+      <c r="F15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="V15" s="14" t="s">
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2</v>
+      </c>
+      <c r="V15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W15" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="F16" s="6" t="s">
+      <c r="W15" s="6">
+        <v>20</v>
+      </c>
+      <c r="X15" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
+      <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V16" s="14" t="s">
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W16" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="F17" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="W16" s="6">
+        <v>20</v>
+      </c>
+      <c r="X16" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V17" s="14" t="s">
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="F18" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="O18" s="3" t="s">
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="O18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="F19" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="O19" s="3" t="s">
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="O19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="F20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+    </row>
+    <row r="20" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="13" t="s">
+      <c r="W20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="F21" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="O21" s="3" t="s">
+    <row r="21" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="O21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y21" s="15" t="s">
+      <c r="Y21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z21" s="15" t="s">
+      <c r="Z21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA21" s="15" t="s">
+      <c r="AA21" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="O22" s="3" t="s">
+    <row r="22" spans="6:29" ht="14.25" customHeight="1">
+      <c r="O22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W22" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X22" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="F23" s="16" t="s">
+      <c r="W22" s="6">
+        <v>10</v>
+      </c>
+      <c r="X22" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="O23" s="3" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="O23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W23" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA23" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="F24" s="6" t="s">
+      <c r="W23" s="6">
+        <v>10</v>
+      </c>
+      <c r="X23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W24" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="X24" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="F25" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="F26" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="F27" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W27" s="15" t="s">
+      <c r="W24" s="6">
+        <v>10</v>
+      </c>
+      <c r="X24" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y27" s="15" t="s">
+      <c r="Y27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="15" t="s">
+      <c r="Z27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA27" s="15" t="s">
+      <c r="AA27" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="F28" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W28" s="20" t="s">
+    <row r="28" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="W28" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="F29" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W29" s="15" t="s">
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+    </row>
+    <row r="29" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="W29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="15" t="s">
+      <c r="X29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="15" t="s">
+      <c r="Y29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="15" t="s">
+      <c r="Z29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="15" t="s">
+      <c r="AA29" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="W30" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="X30" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="AA30" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="F31" s="6" t="s">
+    <row r="30" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="W30" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="X30" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="X31" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="AA31" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="AC31" s="22"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="F32" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="G32" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W32" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="X32" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="AA32" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="AC32" s="22"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="F33" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="G33" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Z33" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="AA33" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="AC33" s="22"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="F34" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="G34" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="X34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="Z34" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="AA34" s="7">
-        <v>22026.4658</v>
-      </c>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="F35" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="H35" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W35" s="10" t="s">
+      <c r="W31" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="X31" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="19"/>
+    </row>
+    <row r="32" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F32" s="20">
+        <v>10</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20">
+        <v>0</v>
+      </c>
+      <c r="W32" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="X32" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="19"/>
+    </row>
+    <row r="33" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F33" s="20">
+        <v>10</v>
+      </c>
+      <c r="G33" s="20">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="AC33" s="19"/>
+    </row>
+    <row r="34" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F34" s="20">
+        <v>10</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="W34" s="6">
+        <v>1</v>
+      </c>
+      <c r="X34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>22026.465800000002</v>
+      </c>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <v>10</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <v>0</v>
+      </c>
+      <c r="W35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y35" s="10" t="s">
+      <c r="Y35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z35" s="25" t="s">
+      <c r="Z35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="10" t="s">
+      <c r="AA35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="F36" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="H36" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W36" s="7">
-        <v>66081.397</v>
-      </c>
-      <c r="X36" s="7">
-        <v>66081.397</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>66081.397</v>
-      </c>
-      <c r="Z36" s="7">
-        <v>44055.932</v>
-      </c>
-      <c r="AA36" s="7">
-        <v>44055.932</v>
-      </c>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="F37" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W37" s="15" t="s">
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+    </row>
+    <row r="36" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F36" s="20">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <v>10</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <v>66081.396999999997</v>
+      </c>
+      <c r="X36" s="6">
+        <v>66081.396999999997</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>66081.396999999997</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>44055.932000000001</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>44055.932000000001</v>
+      </c>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+    </row>
+    <row r="37" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F37" s="20">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0</v>
+      </c>
+      <c r="W37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X37" s="15" t="s">
+      <c r="X37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y37" s="15" t="s">
+      <c r="Y37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z37" s="15" t="s">
+      <c r="Z37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA37" s="15" t="s">
+      <c r="AA37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC37" s="24"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="F38" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G38" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W38" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="X38" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Y38" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Z38" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AC38" s="24"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="F39" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G39" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W39" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="X39" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Y39" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Z39" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA39" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AB39" s="22" t="s">
+      <c r="AC37" s="21"/>
+    </row>
+    <row r="38" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F38" s="20">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
+        <v>0</v>
+      </c>
+      <c r="W38" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X38" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y38" s="28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="Z38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="21"/>
+    </row>
+    <row r="39" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0</v>
+      </c>
+      <c r="W39" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X39" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y39" s="28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AC39" s="24"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="W40" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="X40" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>45717.0</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AC40" s="22"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="F41" s="6" t="s">
+      <c r="AC39" s="21"/>
+    </row>
+    <row r="40" spans="6:29" ht="14.25" customHeight="1">
+      <c r="W40" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X40" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y40" s="28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="19"/>
+    </row>
+    <row r="41" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W41" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X41" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z41" s="7">
+      <c r="W41" s="6">
+        <v>0</v>
+      </c>
+      <c r="X41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6">
         <v>0.5</v>
       </c>
-      <c r="AA41" s="7">
+      <c r="AA41" s="6">
         <v>0.5</v>
       </c>
-      <c r="AC41" s="22"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="F42" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H42" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z42" s="7">
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="19"/>
+    </row>
+    <row r="42" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F42" s="20">
+        <v>2</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0</v>
+      </c>
+      <c r="W42" s="6">
+        <v>0</v>
+      </c>
+      <c r="X42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="6">
         <v>0.5</v>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="6">
         <v>0.5</v>
       </c>
-      <c r="AC42" s="22"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="F43" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="G43" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H43" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="W43" s="13" t="s">
+      <c r="AC42" s="19"/>
+    </row>
+    <row r="43" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F43" s="20">
+        <v>2</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20">
+        <v>0</v>
+      </c>
+      <c r="W43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AB43" s="24"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="F44" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="G44" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H44" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S44" s="27" t="s">
+      <c r="AB43" s="21"/>
+    </row>
+    <row r="44" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F44" s="20">
+        <v>2</v>
+      </c>
+      <c r="G44" s="20">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="S44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="T44" s="28" t="s">
+      <c r="T44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="U44" s="18"/>
-      <c r="X44" s="15" t="s">
+      <c r="U44" s="16"/>
+      <c r="X44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y44" s="15" t="s">
+      <c r="Y44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z44" s="15" t="s">
+      <c r="Z44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA44" s="15" t="s">
+      <c r="AA44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AB44" s="24"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="F45" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="H45" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S45" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V45" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W45" s="15" t="s">
+      <c r="AB44" s="21"/>
+    </row>
+    <row r="45" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20">
+        <v>2</v>
+      </c>
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6">
+        <v>1</v>
+      </c>
+      <c r="T45" s="6">
+        <v>0</v>
+      </c>
+      <c r="U45" s="6">
+        <v>0</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0</v>
+      </c>
+      <c r="W45" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X45" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Y45" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Z45" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="AA45" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AB45" s="24"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="F46" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="H46" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I46" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T46" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U46" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V46" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W46" s="15" t="s">
+      <c r="X45" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="21"/>
+    </row>
+    <row r="46" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F46" s="20">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20">
+        <v>2</v>
+      </c>
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0</v>
+      </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6">
+        <v>1</v>
+      </c>
+      <c r="U46" s="6">
+        <v>0</v>
+      </c>
+      <c r="V46" s="6">
+        <v>0</v>
+      </c>
+      <c r="W46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X46" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Y46" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Z46" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="AA46" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AB46" s="22" t="s">
+      <c r="X46" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="F47" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="V47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="W47" s="15" t="s">
+    <row r="47" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F47" s="20">
+        <v>0</v>
+      </c>
+      <c r="G47" s="20">
+        <v>0</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6">
+        <v>0</v>
+      </c>
+      <c r="T47" s="6">
+        <v>0</v>
+      </c>
+      <c r="U47" s="6">
+        <v>1</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0</v>
+      </c>
+      <c r="W47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X47" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Y47" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="Z47" s="7">
-        <v>0.333</v>
-      </c>
-      <c r="AA47" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="F48" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G48" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H48" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I48" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V48" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="W48" s="15" t="s">
+      <c r="X47" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="24"/>
+    </row>
+    <row r="48" spans="6:29" ht="14.25" customHeight="1">
+      <c r="F48" s="20">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
+      </c>
+      <c r="T48" s="6">
+        <v>0</v>
+      </c>
+      <c r="U48" s="6">
+        <v>0</v>
+      </c>
+      <c r="V48" s="6">
+        <v>1</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z48" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA48" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="F49" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H49" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I49" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="S49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="T49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="V49" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="W49" s="15" t="s">
+      <c r="X48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="24"/>
+    </row>
+    <row r="49" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <v>0</v>
+      </c>
+      <c r="I49" s="20">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
+      <c r="T49" s="6">
+        <v>0</v>
+      </c>
+      <c r="U49" s="6">
+        <v>0</v>
+      </c>
+      <c r="V49" s="6">
+        <v>1</v>
+      </c>
+      <c r="W49" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Y49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AA49" s="7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="F51" s="6" t="s">
+      <c r="X49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:27" ht="14.25" customHeight="1"/>
+    <row r="51" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F51" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="F52" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="G52" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I52" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="F53" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G53" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="H53" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I53" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="F54" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="I54" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="F55" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I55" s="23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="F56" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I56" s="23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="F57" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I57" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="F58" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G58" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I58" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="F59" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="G59" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="I59" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="52" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F52" s="20">
+        <v>1</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20">
+        <v>1</v>
+      </c>
+      <c r="H53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20">
+        <v>0</v>
+      </c>
+      <c r="H54" s="20">
+        <v>1</v>
+      </c>
+      <c r="I54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20">
+        <v>0</v>
+      </c>
+      <c r="I55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <v>0</v>
+      </c>
+      <c r="I56" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>0</v>
+      </c>
+      <c r="I58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:27" ht="14.25" customHeight="1">
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:27" ht="14.25" customHeight="1"/>
+    <row r="61" spans="6:27" ht="14.25" customHeight="1"/>
+    <row r="62" spans="6:27" ht="14.25" customHeight="1"/>
+    <row r="63" spans="6:27" ht="14.25" customHeight="1"/>
+    <row r="64" spans="6:27" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3162,9 +3282,7 @@
     <mergeCell ref="AB46:AB48"/>
     <mergeCell ref="A1:U4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="36" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>